--- a/DataFiles/HypolimnionCalcs.xlsx
+++ b/DataFiles/HypolimnionCalcs.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AACEB239494DDBC25A5CACC359636B5A2792033A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82942241-73F0-4178-8A47-F0C52104B598}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-19320" yWindow="780" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -428,25 +440,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="21" width="8.88671875" style="6"/>
-    <col min="22" max="25" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="2"/>
+    <col min="6" max="9" width="8.85546875" style="4"/>
+    <col min="10" max="13" width="8.85546875" style="2"/>
+    <col min="14" max="17" width="8.85546875" style="4"/>
+    <col min="18" max="21" width="8.85546875" style="6"/>
+    <col min="22" max="25" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -466,7 +478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -543,7 +555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>30317</v>
       </c>
@@ -628,7 +640,7 @@
         <v>5.8502474026567723</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30348</v>
       </c>
@@ -713,7 +725,7 @@
         <v>5.782436233574952</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30376</v>
       </c>
@@ -798,7 +810,7 @@
         <v>5.8880194066031004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>30407</v>
       </c>
@@ -883,7 +895,7 @@
         <v>5.782436233574952</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>30437</v>
       </c>
@@ -968,7 +980,7 @@
         <v>5.8933768745564432</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30468</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>5.7714210613724379</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>30498</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>5.8188715412342882</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>30529</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>5.6363988070874846</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>30560</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>5.4624676999884283</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>30590</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>5.4391978030316466</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>30621</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>5.4221027155998485</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30651</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>5.7714210613724379</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30682</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>5.9147226584921313</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30713</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>30742</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>6.2780000746408415</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30773</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>6.2977953455193258</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30803</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30834</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>6.2124937619691849</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30864</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>5.8664790568054643</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30895</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>6.3104343789630537</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>30926</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>5.8084745826439512</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>30956</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>5.6981834985380555</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30987</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>5.5899582074386398</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>31017</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>5.4844791422966734</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>31048</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>5.6760312203232086</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>31079</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>5.8345991361808256</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>31107</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>5.8880194066031004</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31138</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>5.787661934969285</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31168</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>5.782436233574952</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31199</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>5.7714210613724379</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31229</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>5.671054134419272</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31260</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>5.8556573623815265</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31291</v>
       </c>
@@ -3348,7 +3360,7 @@
         <v>5.8556573623815265</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>31321</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>5.671054134419272</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>31352</v>
       </c>
@@ -3518,7 +3530,7 @@
         <v>5.5282774621962929</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>31382</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>6.0280324383047965</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>31413</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>5.7714210613724379</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>31444</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>5.7980862436422562</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>31472</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>31503</v>
       </c>
@@ -3943,7 +3955,7 @@
         <v>5.8084745826439512</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>31533</v>
       </c>
@@ -4028,7 +4040,7 @@
         <v>5.7714210613724379</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>31564</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>5.6760312203232086</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>31594</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>5.4844791422966734</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>31625</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>5.4464141068945597</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>31656</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>5.5625167350826983</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>31686</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>5.4223655312996568</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>31717</v>
       </c>
@@ -4538,7 +4550,7 @@
         <v>5.4221027155998485</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>31747</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>5.4221027155998485</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>31778</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>5.6610705856754073</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>31809</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>5.8502474026567723</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>31837</v>
       </c>
@@ -4878,7 +4890,7 @@
         <v>6.1708047792953229</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>31868</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>5.8545733466481433</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>31898</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>5.8545733466481433</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>31929</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>5.8325067200819811</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>31959</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>5.7342495873728421</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>31990</v>
       </c>
@@ -5303,7 +5315,7 @@
         <v>5.6859310926849558</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>32021</v>
       </c>
@@ -5388,7 +5400,7 @@
         <v>5.4873020175586138</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>32051</v>
       </c>
@@ -5473,7 +5485,7 @@
         <v>5.6258601772236254</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>32082</v>
       </c>
@@ -5558,7 +5570,7 @@
         <v>5.4267625509924891</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>32112</v>
       </c>
@@ -5643,7 +5655,7 @@
         <v>5.4262035201357346</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>32143</v>
       </c>
@@ -5728,7 +5740,7 @@
         <v>5.783482098115968</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>32174</v>
       </c>
@@ -5813,7 +5825,7 @@
         <v>5.8589073932606368</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32203</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>5.8063997834779197</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>32234</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>5.8858738918625093</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>32264</v>
       </c>
@@ -6068,7 +6080,7 @@
         <v>5.7980862436422562</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>32295</v>
       </c>
@@ -6153,7 +6165,7 @@
         <v>5.7970454344878597</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>32325</v>
       </c>
@@ -6238,7 +6250,7 @@
         <v>5.6640697727738472</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>32356</v>
       </c>
@@ -6323,7 +6335,7 @@
         <v>5.4901174700207589</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>32387</v>
       </c>
@@ -6408,7 +6420,7 @@
         <v>5.4419361945266616</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>32417</v>
       </c>
@@ -6493,7 +6505,7 @@
         <v>5.4497356168341593</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>32448</v>
       </c>
@@ -6578,7 +6590,7 @@
         <v>5.4203874199609539</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>32478</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>5.7747344373974281</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>32509</v>
       </c>
@@ -6748,7 +6760,7 @@
         <v>5.7658921089535315</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>32540</v>
       </c>
@@ -6833,7 +6845,7 @@
         <v>5.7907930154965461</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>32568</v>
       </c>
@@ -6918,7 +6930,7 @@
         <v>6.4853131463757574</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>32599</v>
       </c>
@@ -7003,7 +7015,7 @@
         <v>6.2303389792529638</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>32629</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>5.9221404892072975</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>32660</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>5.8105479504614248</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>32690</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>5.8230733571707107</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>32721</v>
       </c>
@@ -7343,7 +7355,7 @@
         <v>5.8304128922808438</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>32752</v>
       </c>
@@ -7428,7 +7440,7 @@
         <v>5.8146903979707805</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>32782</v>
       </c>
@@ -7513,7 +7525,7 @@
         <v>5.8115840980771463</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>32813</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>5.8209731589957485</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>32843</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>5.80951144537873</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>32874</v>
       </c>
@@ -7768,7 +7780,7 @@
         <v>5.8012065136771316</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>32905</v>
       </c>
@@ -7853,7 +7865,7 @@
         <v>5.9896880824094474</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>32933</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>5.794962736345763</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>32964</v>
       </c>
@@ -8023,7 +8035,7 @@
         <v>6.1346365626398764</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>32994</v>
       </c>
@@ -8108,7 +8120,7 @@
         <v>5.8105479504614248</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>33025</v>
       </c>
@@ -8193,7 +8205,7 @@
         <v>6.0460016212050203</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>33055</v>
       </c>
@@ -8278,7 +8290,7 @@
         <v>5.7780448218128608</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>33086</v>
       </c>
@@ -8363,7 +8375,7 @@
         <v>5.6106339127004965</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>33117</v>
       </c>
@@ -8448,7 +8460,7 @@
         <v>5.516244680475479</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>33147</v>
       </c>
@@ -8533,7 +8545,7 @@
         <v>5.4497356168341593</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>33178</v>
       </c>
@@ -8618,7 +8630,7 @@
         <v>5.7970454344878597</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>33208</v>
       </c>
@@ -8703,7 +8715,7 @@
         <v>5.8074373620721405</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>33239</v>
       </c>
@@ -8788,7 +8800,7 @@
         <v>5.8545733466481433</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>33270</v>
       </c>
@@ -8873,7 +8885,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>33298</v>
       </c>
@@ -8958,7 +8970,7 @@
         <v>5.8084745826439512</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>33329</v>
       </c>
@@ -9043,7 +9055,7 @@
         <v>6.3062867313748612</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>33359</v>
       </c>
@@ -9128,7 +9140,7 @@
         <v>5.8043235514805183</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>33390</v>
       </c>
@@ -9213,7 +9225,7 @@
         <v>5.787661934969285</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>33420</v>
       </c>
@@ -9298,7 +9310,7 @@
         <v>5.8012065136771316</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>33451</v>
       </c>
@@ -9383,7 +9395,7 @@
         <v>5.8074373620721405</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>33482</v>
       </c>
@@ -9468,7 +9480,7 @@
         <v>5.7323023961260304</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>33512</v>
       </c>
@@ -9553,7 +9565,7 @@
         <v>5.713718155658527</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>33543</v>
       </c>
@@ -9638,7 +9650,7 @@
         <v>5.6344863933295688</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>33573</v>
       </c>
@@ -9723,7 +9735,7 @@
         <v>5.5142145846307447</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>33604</v>
       </c>
@@ -9808,7 +9820,7 @@
         <v>5.5662034733834611</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>33635</v>
       </c>
@@ -9893,7 +9905,7 @@
         <v>5.8022458851669914</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>33664</v>
       </c>
@@ -9978,7 +9990,7 @@
         <v>6.0502159902197885</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>33695</v>
       </c>
@@ -10063,7 +10075,7 @@
         <v>5.8136553216471238</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>33725</v>
       </c>
@@ -10148,7 +10160,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>33756</v>
       </c>
@@ -10233,7 +10245,7 @@
         <v>5.799126693100999</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>33786</v>
       </c>
@@ -10318,7 +10330,7 @@
         <v>5.82202343544163</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>33817</v>
       </c>
@@ -10403,7 +10415,7 @@
         <v>5.8053618466758952</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>33848</v>
       </c>
@@ -10488,7 +10500,7 @@
         <v>5.7703159371942974</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>33878</v>
       </c>
@@ -10573,7 +10585,7 @@
         <v>5.5989757051928564</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>33909</v>
       </c>
@@ -10658,7 +10670,7 @@
         <v>5.5744733079506297</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>33939</v>
       </c>
@@ -10743,7 +10755,7 @@
         <v>5.9231819430915831</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>33970</v>
       </c>
@@ -10828,7 +10840,7 @@
         <v>5.8697190333748912</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>34001</v>
       </c>
@@ -10913,7 +10925,7 @@
         <v>5.8304128922808438</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>34029</v>
       </c>
@@ -10998,7 +11010,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>34060</v>
       </c>
@@ -11083,7 +11095,7 @@
         <v>5.8987259138783328</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>34090</v>
       </c>
@@ -11168,7 +11180,7 @@
         <v>5.8105479504614248</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>34121</v>
       </c>
@@ -11253,7 +11265,7 @@
         <v>5.8146903979707805</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>34151</v>
       </c>
@@ -11338,7 +11350,7 @@
         <v>5.7293786722575746</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>34182</v>
       </c>
@@ -11423,7 +11435,7 @@
         <v>5.7342495873728421</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>34213</v>
       </c>
@@ -11508,7 +11520,7 @@
         <v>5.5908619101612658</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>34243</v>
       </c>
@@ -11593,7 +11605,7 @@
         <v>5.4971238179316648</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>34274</v>
       </c>
@@ -11678,7 +11690,7 @@
         <v>5.4213315337738788</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>34304</v>
       </c>
@@ -11763,7 +11775,7 @@
         <v>5.5040025445840346</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>34335</v>
       </c>
@@ -11848,7 +11860,7 @@
         <v>5.8022458851669914</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>34366</v>
       </c>
@@ -11933,7 +11945,7 @@
         <v>5.936689380547314</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>34394</v>
       </c>
@@ -12018,7 +12030,7 @@
         <v>6.0039846666709149</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>34425</v>
       </c>
@@ -12103,7 +12115,7 @@
         <v>6.348185248359739</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>34455</v>
       </c>
@@ -12188,7 +12200,7 @@
         <v>5.7866175185763407</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>34486</v>
       </c>
@@ -12273,7 +12285,7 @@
         <v>5.7410524510417016</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>34516</v>
       </c>
@@ -12358,7 +12370,7 @@
         <v>5.7156878485991047</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>34547</v>
       </c>
@@ -12443,7 +12455,7 @@
         <v>5.9072668948242644</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>34578</v>
       </c>
@@ -12528,7 +12540,7 @@
         <v>5.8115840980771463</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>34608</v>
       </c>
@@ -12613,7 +12625,7 @@
         <v>5.7274275622555928</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>34639</v>
       </c>
@@ -12698,7 +12710,7 @@
         <v>5.7371674419625176</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>34669</v>
       </c>
@@ -12783,7 +12795,7 @@
         <v>5.7081776666878863</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>34700</v>
       </c>
@@ -12868,7 +12880,7 @@
         <v>5.7410524510417016</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>34731</v>
       </c>
@@ -12953,7 +12965,7 @@
         <v>5.8105479504614248</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>34759</v>
       </c>
@@ -13038,7 +13050,7 @@
         <v>5.8556573623815265</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>34790</v>
       </c>
@@ -13123,7 +13135,7 @@
         <v>5.7918359867470883</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>34820</v>
       </c>
@@ -13208,7 +13220,7 @@
         <v>5.8053618466758952</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>34851</v>
       </c>
@@ -13293,7 +13305,7 @@
         <v>5.8524043060823931</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>34881</v>
       </c>
@@ -13378,7 +13390,7 @@
         <v>6.3923516971448162</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>34912</v>
       </c>
@@ -13463,7 +13475,7 @@
         <v>5.83355310450494</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>34943</v>
       </c>
@@ -13548,7 +13560,7 @@
         <v>6.0182247218404132</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>34973</v>
       </c>
@@ -13633,7 +13645,7 @@
         <v>5.7103948742932209</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>35004</v>
       </c>
@@ -13718,7 +13730,7 @@
         <v>5.9619938760012943</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>35034</v>
       </c>
@@ -13803,7 +13815,7 @@
         <v>5.8675593833867872</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>35065</v>
       </c>
@@ -13888,7 +13900,7 @@
         <v>5.8126198884107865</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>35096</v>
       </c>
@@ -13973,7 +13985,7 @@
         <v>6.095534740504732</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>35125</v>
       </c>
@@ -14058,7 +14070,7 @@
         <v>5.8053618466758952</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>35156</v>
       </c>
@@ -14143,7 +14155,7 @@
         <v>5.8686393755248423</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>35186</v>
       </c>
@@ -14228,7 +14240,7 @@
         <v>5.8997947120570302</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>35217</v>
       </c>
@@ -14313,7 +14325,7 @@
         <v>5.8481655289650147</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>35247</v>
       </c>
@@ -14398,7 +14410,7 @@
         <v>5.7725258526987862</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>35278</v>
       </c>
@@ -14483,7 +14495,7 @@
         <v>5.7855727404284858</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>35309</v>
       </c>
@@ -14568,7 +14580,7 @@
         <v>5.7928785971806906</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>35339</v>
       </c>
@@ -14653,7 +14665,7 @@
         <v>5.8481655289650147</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>35370</v>
       </c>
@@ -14738,7 +14750,7 @@
         <v>5.8012065136771316</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>35400</v>
       </c>
@@ -14823,7 +14835,7 @@
         <v>5.8230733571707107</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>35431</v>
       </c>
@@ -14908,7 +14920,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>35462</v>
       </c>
@@ -14993,7 +15005,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>35490</v>
       </c>
@@ -15078,7 +15090,7 @@
         <v>5.83355310450494</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>35521</v>
       </c>
@@ -15163,7 +15175,7 @@
         <v>5.8230733571707107</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>35551</v>
       </c>
@@ -15248,7 +15260,7 @@
         <v>6.5554242414789936</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>35582</v>
       </c>
@@ -15333,7 +15345,7 @@
         <v>5.8492066408531613</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>35612</v>
       </c>
@@ -15418,7 +15430,7 @@
         <v>5.8262209958532214</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>35643</v>
       </c>
@@ -15503,7 +15515,7 @@
         <v>5.936689380547314</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>35674</v>
       </c>
@@ -15588,7 +15600,7 @@
         <v>5.7015179341628368</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>35704</v>
       </c>
@@ -15673,7 +15685,7 @@
         <v>5.6470274366026993</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>35735</v>
       </c>
@@ -15758,7 +15770,7 @@
         <v>5.5944723759524315</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>35765</v>
       </c>
@@ -15843,7 +15855,7 @@
         <v>5.8115840980771463</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>35796</v>
       </c>
@@ -15928,7 +15940,7 @@
         <v>5.9940952559826632</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>35827</v>
       </c>
@@ -16013,7 +16025,7 @@
         <v>6.4877417931777561</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>35855</v>
       </c>
@@ -16098,7 +16110,7 @@
         <v>6.0290920616861614</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>35886</v>
       </c>
@@ -16183,7 +16195,7 @@
         <v>6.1674333355128397</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>35916</v>
       </c>
@@ -16268,7 +16280,7 @@
         <v>5.80951144537873</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>35947</v>
       </c>
@@ -16353,7 +16365,7 @@
         <v>5.8314599827334739</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>35977</v>
       </c>
@@ -16438,7 +16450,7 @@
         <v>5.8074373620721405</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>36008</v>
       </c>
@@ -16523,7 +16535,7 @@
         <v>5.6760312203232086</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>36039</v>
       </c>
@@ -16608,7 +16620,7 @@
         <v>5.5671240735875074</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>36069</v>
       </c>
@@ -16693,7 +16705,7 @@
         <v>5.516244680475479</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>36100</v>
       </c>
@@ -16778,7 +16790,7 @@
         <v>5.422939200074957</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>36130</v>
       </c>
@@ -16863,7 +16875,7 @@
         <v>5.4513812138062185</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>36161</v>
       </c>
@@ -16948,7 +16960,7 @@
         <v>5.4964252496502546</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>36192</v>
       </c>
@@ -17033,7 +17045,7 @@
         <v>6.1977172870218382</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>36220</v>
       </c>
@@ -17118,7 +17130,7 @@
         <v>5.8167685024465277</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>36251</v>
       </c>
@@ -17203,7 +17215,7 @@
         <v>5.8610724018080536</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>36281</v>
       </c>
@@ -17288,7 +17300,7 @@
         <v>5.958657545814158</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>36312</v>
       </c>
@@ -17373,7 +17385,7 @@
         <v>5.794962736345763</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>36342</v>
       </c>
@@ -17458,7 +17470,7 @@
         <v>5.6620707080200052</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>36373</v>
       </c>
@@ -17543,7 +17555,7 @@
         <v>5.5935704106426343</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>36404</v>
       </c>
@@ -17628,7 +17640,7 @@
         <v>5.5393053276149473</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>36434</v>
       </c>
@@ -17713,7 +17725,7 @@
         <v>6.3874859873596215</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>36465</v>
       </c>
@@ -17798,7 +17810,7 @@
         <v>5.8450400910261724</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>36495</v>
       </c>
@@ -17883,7 +17895,7 @@
         <v>5.9408337948279204</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>36526</v>
       </c>
@@ -17968,7 +17980,7 @@
         <v>5.8643173996913847</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>36557</v>
       </c>
@@ -18053,7 +18065,7 @@
         <v>6.141775823252944</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>36586</v>
       </c>
@@ -18138,7 +18150,7 @@
         <v>6.2845178901612178</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>36617</v>
       </c>
@@ -18223,7 +18235,7 @@
         <v>5.8880194066031004</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>36647</v>
       </c>
@@ -18308,7 +18320,7 @@
         <v>5.946006584865561</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>36678</v>
       </c>
@@ -18393,7 +18405,7 @@
         <v>5.8513192809368544</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>36708</v>
       </c>
@@ -18478,7 +18490,7 @@
         <v>5.9273442959788296</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>36739</v>
       </c>
@@ -18563,7 +18575,7 @@
         <v>5.8610724018080536</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>36770</v>
       </c>
@@ -18648,7 +18660,7 @@
         <v>5.8697190333748912</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>36800</v>
       </c>
@@ -18733,7 +18745,7 @@
         <v>5.9885840216887711</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>36831</v>
       </c>
@@ -18818,7 +18830,7 @@
         <v>5.639264353010871</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>36861</v>
       </c>
@@ -18903,7 +18915,7 @@
         <v>5.547294264775501</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>36892</v>
       </c>
@@ -18988,7 +19000,7 @@
         <v>5.5541961157563806</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>36923</v>
       </c>
@@ -19073,7 +19085,7 @@
         <v>5.6760312203232086</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>36951</v>
       </c>
@@ -19158,7 +19170,7 @@
         <v>5.8230733571707107</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>36982</v>
       </c>
@@ -19243,7 +19255,7 @@
         <v>6.3087278468266978</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>37012</v>
       </c>
@@ -19328,7 +19340,7 @@
         <v>5.8356448152879752</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>37043</v>
       </c>
@@ -19413,7 +19425,7 @@
         <v>5.8675593833867872</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>37073</v>
       </c>
@@ -19498,7 +19510,7 @@
         <v>5.8293654485453947</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>37104</v>
       </c>
@@ -19583,7 +19595,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>37135</v>
       </c>
@@ -19668,7 +19680,7 @@
         <v>5.8729560027484142</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>37165</v>
       </c>
@@ -19753,7 +19765,7 @@
         <v>5.7525885594586601</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>37196</v>
       </c>
@@ -19838,7 +19850,7 @@
         <v>5.568963974892517</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>37226</v>
       </c>
@@ -19923,7 +19935,7 @@
         <v>5.4247947784925969</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>37257</v>
       </c>
@@ -20008,7 +20020,7 @@
         <v>5.4390725235704682</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>37288</v>
       </c>
@@ -20093,7 +20105,7 @@
         <v>5.8675593833867872</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>37316</v>
       </c>
@@ -20178,7 +20190,7 @@
         <v>5.8513192809368544</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>37347</v>
       </c>
@@ -20263,7 +20275,7 @@
         <v>5.8707983570921254</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>37377</v>
       </c>
@@ -20348,7 +20360,7 @@
         <v>5.8022458851669914</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>37408</v>
       </c>
@@ -20433,7 +20445,7 @@
         <v>5.5953739076918865</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>37438</v>
       </c>
@@ -20518,7 +20530,7 @@
         <v>5.4222677236121974</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>37469</v>
       </c>
@@ -20603,7 +20615,7 @@
         <v>5.4402150508402292</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>37500</v>
       </c>
@@ -20688,7 +20700,7 @@
         <v>5.4472483029226479</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>37530</v>
       </c>
@@ -20773,7 +20785,7 @@
         <v>5.5881494962662792</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>37561</v>
       </c>
@@ -20858,7 +20870,7 @@
         <v>6.053373361105173</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>37591</v>
       </c>
@@ -20943,7 +20955,7 @@
         <v>5.8105479504614248</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>37622</v>
       </c>
@@ -21028,7 +21040,7 @@
         <v>5.9083330079072311</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>37653</v>
       </c>
@@ -21113,7 +21125,7 @@
         <v>5.8901634064948034</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>37681</v>
       </c>
@@ -21198,7 +21210,7 @@
         <v>6.2785942895338298</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>37712</v>
       </c>
@@ -21283,7 +21295,7 @@
         <v>6.2431352986820396</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>37742</v>
       </c>
@@ -21368,7 +21380,7 @@
         <v>5.8272695005105888</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>37773</v>
       </c>
@@ -21453,7 +21465,7 @@
         <v>5.9841646978149088</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>37803</v>
       </c>
@@ -21538,7 +21550,7 @@
         <v>5.8419114959594136</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>37834</v>
       </c>
@@ -21623,7 +21635,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>37865</v>
       </c>
@@ -21708,7 +21720,7 @@
         <v>5.8241229243626513</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>37895</v>
       </c>
@@ -21793,7 +21805,7 @@
         <v>5.8314599827334739</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>37926</v>
       </c>
@@ -21878,7 +21890,7 @@
         <v>5.8387797389786167</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>37956</v>
       </c>
@@ -21963,7 +21975,7 @@
         <v>5.8157251175662754</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>37987</v>
       </c>
@@ -22048,7 +22060,7 @@
         <v>5.8241229243626513</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>38018</v>
       </c>
@@ -22133,7 +22145,7 @@
         <v>5.8293654485453947</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>38047</v>
       </c>
@@ -22218,7 +22230,7 @@
         <v>5.8492066408531613</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>38078</v>
       </c>
@@ -22303,7 +22315,7 @@
         <v>5.80951144537873</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>38108</v>
       </c>
@@ -22388,7 +22400,7 @@
         <v>5.8589073932606368</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>38139</v>
       </c>
@@ -22473,7 +22485,7 @@
         <v>5.8325067200819811</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>38169</v>
       </c>
@@ -22558,7 +22570,7 @@
         <v>5.8675593833867872</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>38200</v>
       </c>
@@ -22643,7 +22655,7 @@
         <v>5.8933768745564432</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>38231</v>
       </c>
@@ -22728,7 +22740,7 @@
         <v>5.9951953320574001</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>38261</v>
       </c>
@@ -22813,7 +22825,7 @@
         <v>6.0072755087303467</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>38292</v>
       </c>
@@ -22898,7 +22910,7 @@
         <v>5.8188715412342882</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>38322</v>
       </c>
@@ -22983,7 +22995,7 @@
         <v>6.0460016212050203</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>38353</v>
       </c>
@@ -23068,7 +23080,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>38384</v>
       </c>
@@ -23153,7 +23165,7 @@
         <v>5.8686393755248423</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>38412</v>
       </c>
@@ -23238,7 +23250,7 @@
         <v>5.9501386479571838</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>38443</v>
       </c>
@@ -23323,7 +23335,7 @@
         <v>6.0797292200003232</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>38473</v>
       </c>
@@ -23408,7 +23420,7 @@
         <v>5.8053618466758952</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>38504</v>
       </c>
@@ -23493,7 +23505,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>38534</v>
       </c>
@@ -23578,7 +23590,7 @@
         <v>5.735222596304542</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>38565</v>
       </c>
@@ -23663,7 +23675,7 @@
         <v>5.8251721371970131</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>38596</v>
       </c>
@@ -23748,7 +23760,7 @@
         <v>5.7342495873728421</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>38626</v>
       </c>
@@ -23833,7 +23845,7 @@
         <v>5.4998887674007211</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>38657</v>
       </c>
@@ -23918,7 +23930,7 @@
         <v>5.4773892861151952</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>38687</v>
       </c>
@@ -24003,7 +24015,7 @@
         <v>5.5698832766044184</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>38718</v>
       </c>
@@ -24088,7 +24100,7 @@
         <v>5.8643173996913847</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>38749</v>
       </c>
@@ -24173,7 +24185,7 @@
         <v>5.8653983956254896</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>38777</v>
       </c>
@@ -24258,7 +24270,7 @@
         <v>5.9189757438469641</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>38808</v>
       </c>
@@ -24343,7 +24355,7 @@
         <v>5.8837242356953254</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>38838</v>
       </c>
@@ -24428,7 +24440,7 @@
         <v>5.9501386479571838</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>38869</v>
       </c>
@@ -24513,7 +24525,7 @@
         <v>5.8387797389786167</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>38899</v>
       </c>
@@ -24598,7 +24610,7 @@
         <v>6.0290920616861614</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>38930</v>
       </c>
@@ -24683,7 +24695,7 @@
         <v>5.8556573623815265</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>38961</v>
       </c>
@@ -24768,7 +24780,7 @@
         <v>5.7647853182579283</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>38991</v>
       </c>
@@ -24853,7 +24865,7 @@
         <v>5.8524043060823931</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>39022</v>
       </c>
@@ -24938,7 +24950,7 @@
         <v>5.8686393755248423</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>39052</v>
       </c>
@@ -25023,7 +25035,7 @@
         <v>6.2239154751769847</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>39083</v>
       </c>
@@ -25108,7 +25120,7 @@
         <v>6.1114525752577178</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>39114</v>
       </c>
@@ -25193,7 +25205,7 @@
         <v>5.8209731589957485</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>39142</v>
       </c>
@@ -25278,7 +25290,7 @@
         <v>5.8826489095024419</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>39173</v>
       </c>
@@ -25363,7 +25375,7 @@
         <v>5.8325067200819811</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>39203</v>
       </c>
@@ -25448,7 +25460,7 @@
         <v>5.8481655289650147</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>39234</v>
       </c>
@@ -25533,7 +25545,7 @@
         <v>5.80951144537873</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>39264</v>
       </c>
@@ -25618,7 +25630,7 @@
         <v>5.7658921089535315</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>39295</v>
       </c>
@@ -25703,7 +25715,7 @@
         <v>5.6630704369754721</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>39326</v>
       </c>
@@ -25788,7 +25800,7 @@
         <v>5.4823570969616675</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>39356</v>
       </c>
@@ -25873,7 +25885,7 @@
         <v>5.4267007670174792</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>39387</v>
       </c>
@@ -25958,7 +25970,7 @@
         <v>5.4685084099029666</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>39417</v>
       </c>
@@ -26043,7 +26055,7 @@
         <v>5.4255011531843085</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>39448</v>
       </c>
@@ -26128,7 +26140,7 @@
         <v>5.5182707011000627</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>39479</v>
       </c>
@@ -26213,7 +26225,7 @@
         <v>5.646021385449342</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>39508</v>
       </c>
@@ -26298,7 +26310,7 @@
         <v>5.9335774563370371</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>39539</v>
       </c>
@@ -26383,7 +26395,7 @@
         <v>5.9147226584921313</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>39569</v>
       </c>
@@ -26468,7 +26480,7 @@
         <v>6.1356574420104142</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>39600</v>
       </c>
@@ -26553,7 +26565,7 @@
         <v>5.871877346831643</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>39630</v>
       </c>
@@ -26638,7 +26650,7 @@
         <v>5.7313282133391477</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>39661</v>
       </c>
@@ -26723,7 +26735,7 @@
         <v>5.7570284297637437</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>39692</v>
       </c>
@@ -26808,7 +26820,7 @@
         <v>6.0160373689105597</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>39722</v>
       </c>
@@ -26893,7 +26905,7 @@
         <v>5.9136585525962575</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>39753</v>
       </c>
@@ -26978,7 +26990,7 @@
         <v>5.7939208469845562</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>39783</v>
       </c>
@@ -27063,7 +27075,7 @@
         <v>5.8429547120688969</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>39814</v>
       </c>
@@ -27148,7 +27160,7 @@
         <v>5.8965873083119558</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>39845</v>
       </c>
@@ -27233,7 +27245,7 @@
         <v>5.9008631740443604</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>39873</v>
       </c>
@@ -27318,7 +27330,7 @@
         <v>5.8794209366390575</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39904</v>
       </c>
@@ -27403,7 +27415,7 @@
         <v>6.1716467334014915</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>39934</v>
       </c>
@@ -27488,7 +27500,7 @@
         <v>5.8450400910261724</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>39965</v>
       </c>
@@ -27573,7 +27585,7 @@
         <v>5.8772672912846264</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>39995</v>
       </c>
@@ -27658,7 +27670,7 @@
         <v>5.7918359867470883</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>40026</v>
       </c>
@@ -27743,7 +27755,7 @@
         <v>5.6344863933295688</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>40057</v>
       </c>
@@ -27828,7 +27840,7 @@
         <v>5.5282774621962929</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>40087</v>
       </c>
@@ -27913,7 +27925,7 @@
         <v>5.5080997224475947</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>40118</v>
       </c>
@@ -27998,7 +28010,7 @@
         <v>5.4880065754168408</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>40148</v>
       </c>
@@ -28083,7 +28095,7 @@
         <v>5.9480733010539897</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>40179</v>
       </c>
@@ -28168,7 +28180,7 @@
         <v>6.0375572774240158</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>40210</v>
       </c>
@@ -28253,7 +28265,7 @@
         <v>6.3059424745596626</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>40238</v>
       </c>
@@ -28338,7 +28350,7 @@
         <v>5.9125941125630543</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>40269</v>
       </c>
@@ -28423,7 +28435,7 @@
         <v>6.1649009373824324</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>40299</v>
       </c>
@@ -28508,7 +28520,7 @@
         <v>5.8209731589957485</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>40330</v>
       </c>
@@ -28593,7 +28605,7 @@
         <v>5.910464229454897</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>40360</v>
       </c>
@@ -28678,7 +28690,7 @@
         <v>5.8063997834779197</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>40391</v>
       </c>
@@ -28763,7 +28775,7 @@
         <v>5.8084745826439512</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>40422</v>
       </c>
@@ -28848,7 +28860,7 @@
         <v>5.8022458851669914</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>40452</v>
       </c>
@@ -28933,7 +28945,7 @@
         <v>5.7887059897951705</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>40483</v>
       </c>
@@ -29018,7 +29030,7 @@
         <v>5.8901634064948034</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>40513</v>
       </c>
@@ -29103,7 +29115,7 @@
         <v>5.7681046896807615</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>40544</v>
       </c>
@@ -29188,7 +29200,7 @@
         <v>5.8063997834779197</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>40575</v>
       </c>
@@ -29273,7 +29285,7 @@
         <v>5.8599900653008099</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>40603</v>
       </c>
@@ -29358,7 +29370,7 @@
         <v>5.8471240668156819</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>40634</v>
       </c>
@@ -29443,7 +29455,7 @@
         <v>5.9797404381612935</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>40664</v>
       </c>
@@ -29528,7 +29540,7 @@
         <v>5.8356448152879752</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>40695</v>
       </c>
@@ -29613,7 +29625,7 @@
         <v>5.9008631740443604</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>40725</v>
       </c>
@@ -29698,7 +29710,7 @@
         <v>5.7980862436422562</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>40756</v>
       </c>
@@ -29783,7 +29795,7 @@
         <v>5.6825823793248116</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>40787</v>
       </c>
@@ -29868,7 +29880,7 @@
         <v>5.523248225600021</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>40817</v>
       </c>
@@ -29953,7 +29965,7 @@
         <v>5.6133409820005333</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>40848</v>
       </c>
@@ -30038,7 +30050,7 @@
         <v>5.6421262156015679</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>40878</v>
       </c>
@@ -30123,7 +30135,7 @@
         <v>6.0586291705062756</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>40909</v>
       </c>
@@ -30208,7 +30220,7 @@
         <v>5.8912348999259709</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>40940</v>
       </c>
@@ -30293,7 +30305,7 @@
         <v>5.8643173996913847</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>40969</v>
       </c>
@@ -30378,7 +30390,7 @@
         <v>5.8955175006065783</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>41000</v>
       </c>
@@ -30463,7 +30475,7 @@
         <v>5.939798206958157</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>41030</v>
       </c>
@@ -30548,7 +30560,7 @@
         <v>5.8643173996913847</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>41061</v>
       </c>
@@ -30633,7 +30645,7 @@
         <v>5.8589073932606368</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>41091</v>
       </c>
@@ -30718,7 +30730,7 @@
         <v>5.7592463554213476</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>41122</v>
       </c>
@@ -30803,7 +30815,7 @@
         <v>5.8012065136771316</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>41153</v>
       </c>
@@ -30888,7 +30900,7 @@
         <v>5.8314599827334739</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>41183</v>
       </c>
@@ -30973,7 +30985,7 @@
         <v>5.8377351165088278</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>41214</v>
       </c>
@@ -31058,7 +31070,7 @@
         <v>5.7514777537077109</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>41244</v>
       </c>
@@ -31143,7 +31155,7 @@
         <v>5.5926680114496605</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>41275</v>
       </c>
@@ -31228,7 +31240,7 @@
         <v>5.6881618639846039</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>41306</v>
       </c>
@@ -31313,7 +31325,7 @@
         <v>5.8481655289650147</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>41334</v>
       </c>
@@ -31398,7 +31410,7 @@
         <v>6.0767465200890767</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>41365</v>
       </c>
@@ -31483,7 +31495,7 @@
         <v>5.8356448152879752</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>41395</v>
       </c>
@@ -31568,7 +31580,7 @@
         <v>5.9231819430915831</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>41426</v>
       </c>
@@ -31653,7 +31665,7 @@
         <v>5.8053618466758952</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>41456</v>
       </c>
@@ -31738,7 +31750,7 @@
         <v>6.04494721702868</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>41487</v>
       </c>
@@ -31823,7 +31835,7 @@
         <v>5.8012065136771316</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>41518</v>
       </c>
@@ -31908,7 +31920,7 @@
         <v>5.7855727404284858</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>41548</v>
       </c>
@@ -31993,7 +32005,7 @@
         <v>5.7293786722575746</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>41579</v>
       </c>
@@ -32078,7 +32090,7 @@
         <v>5.6306566367624296</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>41609</v>
       </c>
@@ -32163,7 +32175,7 @@
         <v>5.6470274366026993</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>41640</v>
       </c>
@@ -32248,7 +32260,7 @@
         <v>6.2321711557278743</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>41671</v>
       </c>
@@ -32333,7 +32345,7 @@
         <v>5.7747344373974281</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>41699</v>
       </c>
@@ -32418,7 +32430,7 @@
         <v>5.8032848977061491</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>41730</v>
       </c>
@@ -32503,7 +32515,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>41760</v>
       </c>
@@ -32588,7 +32600,7 @@
         <v>5.8556573623815265</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>41791</v>
       </c>
@@ -32673,7 +32685,7 @@
         <v>5.776941692491973</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>41821</v>
       </c>
@@ -32758,7 +32770,7 @@
         <v>5.713718155658527</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>41852</v>
       </c>
@@ -32843,7 +32855,7 @@
         <v>5.7361952144226294</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>41883</v>
       </c>
@@ -32928,7 +32940,7 @@
         <v>5.8199225276532793</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>41913</v>
       </c>
@@ -33013,7 +33025,7 @@
         <v>5.7244979513814078</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>41944</v>
       </c>
@@ -33098,7 +33110,7 @@
         <v>5.6200907949491672</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>41974</v>
       </c>
@@ -33183,7 +33195,7 @@
         <v>5.6848151959091915</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>42005</v>
       </c>
@@ -33268,7 +33280,7 @@
         <v>5.9830590959537204</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>42036</v>
       </c>
@@ -33353,7 +33365,7 @@
         <v>5.83355310450494</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>42064</v>
       </c>
@@ -33438,7 +33450,7 @@
         <v>5.8923060558933882</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>42095</v>
       </c>
@@ -33523,7 +33535,7 @@
         <v>5.8293654485453947</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>42125</v>
       </c>
@@ -33608,7 +33620,7 @@
         <v>5.8366901420046116</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>42156</v>
       </c>
@@ -33693,7 +33705,7 @@
         <v>5.7866175185763407</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>42186</v>
       </c>
@@ -33778,7 +33790,7 @@
         <v>5.8012065136771316</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>42217</v>
       </c>
@@ -33863,7 +33875,7 @@
         <v>5.7361952144226294</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>42248</v>
       </c>
@@ -33948,7 +33960,7 @@
         <v>5.5881494962662792</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>42278</v>
       </c>
@@ -34033,7 +34045,7 @@
         <v>5.6124210462765092</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>42309</v>
       </c>
@@ -34118,7 +34130,7 @@
         <v>5.8209731589957485</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>42339</v>
       </c>
@@ -34203,7 +34215,7 @@
         <v>5.9252638117196899</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>42370</v>
       </c>
@@ -34288,7 +34300,7 @@
         <v>6.5845629438275131</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>42401</v>
       </c>
@@ -34373,7 +34385,7 @@
         <v>5.8241229243626513</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>42430</v>
       </c>
@@ -34458,7 +34470,7 @@
         <v>6.1189078566399573</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>42461</v>
       </c>
@@ -34543,7 +34555,7 @@
         <v>6.0687775731147617</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>42491</v>
       </c>
@@ -34628,7 +34640,7 @@
         <v>5.8869468998232666</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>42522</v>
       </c>
@@ -34713,7 +34725,7 @@
         <v>5.8599900653008099</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>42552</v>
       </c>
@@ -34798,7 +34810,7 @@
         <v>5.8804972601283918</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>42583</v>
       </c>
@@ -34883,7 +34895,7 @@
         <v>5.82202343544163</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>42614</v>
       </c>
@@ -34968,7 +34980,7 @@
         <v>5.7361952144226294</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>42644</v>
       </c>
@@ -35053,7 +35065,7 @@
         <v>5.9093987860648429</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>42675</v>
       </c>
@@ -35138,7 +35150,7 @@
         <v>5.8283176513482839</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>42705</v>
       </c>
@@ -35223,7 +35235,7 @@
         <v>5.7361952144226294</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>42736</v>
       </c>
@@ -35308,7 +35320,7 @@
         <v>5.7514777537077109</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>42767</v>
       </c>
@@ -35393,7 +35405,7 @@
         <v>5.8387797389786167</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>42795</v>
       </c>
@@ -35478,7 +35490,7 @@
         <v>5.8262209958532214</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>42826</v>
       </c>
@@ -35563,7 +35575,7 @@
         <v>5.8377351165088278</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>42856</v>
       </c>
@@ -35648,7 +35660,7 @@
         <v>6.473433341657465</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>42887</v>
       </c>
@@ -35733,7 +35745,7 @@
         <v>6.0846935505786028</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>42917</v>
       </c>
@@ -35818,7 +35830,7 @@
         <v>5.9346151088928352</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>42948</v>
       </c>
@@ -35903,7 +35915,7 @@
         <v>5.7570284297637437</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>42979</v>
       </c>
@@ -35988,7 +36000,7 @@
         <v>5.5989757051928564</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>43009</v>
       </c>
@@ -36073,7 +36085,7 @@
         <v>5.5272724454543418</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>43040</v>
       </c>
@@ -36158,7 +36170,7 @@
         <v>5.4795211609785346</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>43070</v>
       </c>
@@ -36243,7 +36255,7 @@
         <v>5.4273416185882155</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>43101</v>
       </c>
@@ -36328,7 +36340,7 @@
         <v>5.4301492702786023</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>43132</v>
       </c>
@@ -36413,7 +36425,7 @@
         <v>5.7205862946184478</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>43160</v>
       </c>
@@ -36498,7 +36510,7 @@
         <v>5.8815732510314795</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>43191</v>
       </c>
@@ -36583,7 +36595,7 @@
         <v>5.9179129729283346</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>43221</v>
       </c>
@@ -36668,7 +36680,7 @@
         <v>6.1766908585942906</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>43252</v>
       </c>
@@ -36753,7 +36765,7 @@
         <v>5.8610724018080536</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>43282</v>
       </c>
@@ -36838,7 +36850,7 @@
         <v>5.7536990297878639</v>
       </c>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>43313</v>
       </c>
@@ -36923,7 +36935,7 @@
         <v>5.7115029719333235</v>
       </c>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>43344</v>
       </c>
@@ -37008,7 +37020,7 @@
         <v>5.8643173996913847</v>
       </c>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>43374</v>
       </c>
@@ -37093,7 +37105,7 @@
         <v>6.4999864286615026</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>43405</v>
       </c>
@@ -37178,7 +37190,7 @@
         <v>5.9918941628611968</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>43435</v>
       </c>
@@ -37263,7 +37275,7 @@
         <v>6.5694607339451263</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>43466</v>
       </c>
@@ -37324,49 +37336,49 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
     </row>
   </sheetData>
